--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>net_idx</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>x_0</t>
@@ -705,13 +708,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +766,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -781,46 +787,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -837,46 +846,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -893,46 +905,49 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -949,46 +964,49 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1005,46 +1023,49 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1061,46 +1082,49 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1117,46 +1141,49 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1173,46 +1200,49 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1229,46 +1259,49 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1285,46 +1318,49 @@
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1341,46 +1377,49 @@
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1397,43 +1436,46 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>46</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R13">
         <v>1</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1460,34 +1502,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1501,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1545,37 +1587,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1589,37 +1631,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1633,37 +1675,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>net_idx</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
   </si>
   <si>
     <t>reaction_0</t>
@@ -1485,13 +1488,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,8 +1534,11 @@
       <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1543,40 +1549,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1587,40 +1596,43 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1631,40 +1643,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1675,37 +1690,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>net_idx</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
   <si>
     <t>reaction_0</t>
@@ -1488,13 +1491,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,8 +1540,11 @@
       <c r="O1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1549,43 +1555,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1596,43 +1605,46 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1643,43 +1655,46 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>78</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1690,40 +1705,43 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -171,6 +180,12 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -250,9 +265,6 @@
   </si>
   <si>
     <t>E3 * (k3 * x_8 * x_9 - k3r * x_10 * x_11)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[129, 123, 255, 255]</t>
@@ -714,13 +726,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,8 +787,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -793,40 +814,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -834,8 +855,17 @@
       <c r="S2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -852,40 +882,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -893,8 +923,17 @@
       <c r="S3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -911,40 +950,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -952,8 +991,17 @@
       <c r="S4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -970,40 +1018,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1011,8 +1059,17 @@
       <c r="S5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1029,40 +1086,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1070,8 +1127,17 @@
       <c r="S6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1088,40 +1154,40 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1129,8 +1195,17 @@
       <c r="S7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1147,40 +1222,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1188,8 +1263,17 @@
       <c r="S8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1206,40 +1290,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1247,8 +1331,17 @@
       <c r="S9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1265,40 +1358,40 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1306,8 +1399,17 @@
       <c r="S10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1324,40 +1426,40 @@
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>47</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>44</v>
-      </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1365,8 +1467,17 @@
       <c r="S11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1383,40 +1494,40 @@
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1424,8 +1535,17 @@
       <c r="S12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1442,46 +1562,55 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
         <v>11</v>
+      </c>
+      <c r="T13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1508,40 +1637,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1555,40 +1684,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1605,40 +1734,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1655,40 +1784,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -1705,40 +1834,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
   <si>
     <t>net_idx</t>
   </si>
@@ -301,6 +302,9 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
@@ -1876,4 +1880,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>net_idx</t>
   </si>
@@ -46,10 +47,10 @@
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[10.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[3900.0, 2400.0]</t>
+    <t>[0, 0]</t>
+  </si>
+  <si>
+    <t>[1000, 1000]</t>
   </si>
   <si>
     <t>[255, 255, 255, 255]</t>
@@ -1913,4 +1914,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB387CD8-B3F3-47AE-AFF1-608992667CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
   <si>
     <t>net_idx</t>
   </si>
@@ -306,13 +312,16 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +384,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +470,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +522,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -730,14 +783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -870,7 +923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -938,7 +991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1006,7 +1059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1074,7 +1127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1142,7 +1195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1210,7 +1263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1278,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1346,7 +1399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1414,7 +1467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1482,7 +1535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1550,7 +1603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1624,14 +1677,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1709,7 @@
         <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>60</v>
@@ -1677,8 +1732,11 @@
       <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1727,8 +1785,11 @@
       <c r="P2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1777,8 +1838,11 @@
       <c r="P3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1827,8 +1891,11 @@
       <c r="P4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1876,6 +1943,9 @@
       </c>
       <c r="P5" t="b">
         <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1884,14 +1954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1917,14 +1987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB387CD8-B3F3-47AE-AFF1-608992667CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="99">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,10 +44,31 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[0, 0]</t>
+    <t>[0.0, 0.0]</t>
   </si>
   <si>
     <t>[1000, 1000]</t>
@@ -62,6 +77,12 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -77,21 +98,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -185,9 +191,6 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 255]</t>
-  </si>
-  <si>
     <t>rectangle</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -309,19 +315,13 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,14 +384,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,27 +462,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,24 +496,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,14 +671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +703,29 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -759,22 +736,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -783,34 +778,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -819,13 +814,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -837,25 +832,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -872,40 +873,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -914,16 +915,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -940,40 +944,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -982,16 +986,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1008,40 +1015,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1050,16 +1057,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1076,40 +1086,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1118,16 +1128,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1144,40 +1157,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1186,16 +1199,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1212,40 +1228,40 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1254,16 +1270,19 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1280,40 +1299,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1322,16 +1341,19 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1348,40 +1370,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1390,16 +1412,19 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1416,40 +1441,40 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>50</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1458,16 +1483,19 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1484,40 +1512,40 @@
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1526,16 +1554,19 @@
         <v>11</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1552,40 +1583,40 @@
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1594,16 +1625,19 @@
         <v>11</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="X12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1620,40 +1654,40 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1662,13 +1696,16 @@
         <v>11</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="X13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1677,16 +1714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,99 +1732,99 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1800,49 +1835,49 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1853,49 +1888,49 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1906,46 +1941,46 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1954,31 +1989,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1987,16 +2028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2014,10 +2055,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="99">
   <si>
     <t>net_idx</t>
   </si>
@@ -923,6 +923,9 @@
       <c r="V2" t="s">
         <v>58</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
@@ -993,6 +996,9 @@
       </c>
       <c r="V3" t="s">
         <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>
@@ -1065,6 +1071,9 @@
       <c r="V4" t="s">
         <v>58</v>
       </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
       <c r="X4" t="s">
         <v>20</v>
       </c>
@@ -1136,6 +1145,9 @@
       <c r="V5" t="s">
         <v>58</v>
       </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
       <c r="X5" t="s">
         <v>20</v>
       </c>
@@ -1207,6 +1219,9 @@
       <c r="V6" t="s">
         <v>58</v>
       </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
       <c r="X6" t="s">
         <v>20</v>
       </c>
@@ -1278,6 +1293,9 @@
       <c r="V7" t="s">
         <v>58</v>
       </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
       <c r="X7" t="s">
         <v>20</v>
       </c>
@@ -1349,6 +1367,9 @@
       <c r="V8" t="s">
         <v>58</v>
       </c>
+      <c r="W8" t="s">
+        <v>35</v>
+      </c>
       <c r="X8" t="s">
         <v>20</v>
       </c>
@@ -1420,6 +1441,9 @@
       <c r="V9" t="s">
         <v>58</v>
       </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
       <c r="X9" t="s">
         <v>20</v>
       </c>
@@ -1491,6 +1515,9 @@
       <c r="V10" t="s">
         <v>58</v>
       </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
       <c r="X10" t="s">
         <v>20</v>
       </c>
@@ -1562,6 +1589,9 @@
       <c r="V11" t="s">
         <v>58</v>
       </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
       <c r="X11" t="s">
         <v>20</v>
       </c>
@@ -1633,6 +1663,9 @@
       <c r="V12" t="s">
         <v>58</v>
       </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
       <c r="X12" t="s">
         <v>20</v>
       </c>
@@ -1703,6 +1736,9 @@
       </c>
       <c r="V13" t="s">
         <v>58</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
       </c>
       <c r="X13" t="s">
         <v>20</v>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="111">
   <si>
     <t>net_idx</t>
   </si>
@@ -77,6 +78,9 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0.0]</t>
+  </si>
+  <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
@@ -233,6 +237,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -314,7 +327,31 @@
     <t>[[654.17, 375.83], [631.88, 363.88], [629.88, 430.38], [766.88, 372.88], [766.38, 431.88]]</t>
   </si>
   <si>
-    <t>[12.0, 15.0]</t>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -757,10 +794,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -769,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -790,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -814,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -841,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -873,40 +910,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -915,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -947,40 +984,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -989,19 +1026,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1021,40 +1058,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1063,19 +1100,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1095,40 +1132,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1137,19 +1174,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1169,40 +1206,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1211,19 +1248,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1243,40 +1280,40 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1285,19 +1322,19 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1317,40 +1354,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1359,19 +1396,19 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1391,40 +1428,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1433,19 +1470,19 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1465,40 +1502,40 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1507,19 +1544,19 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1539,40 +1576,40 @@
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1581,19 +1618,19 @@
         <v>11</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1613,40 +1650,40 @@
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1655,19 +1692,19 @@
         <v>11</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1687,40 +1724,40 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>54</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1729,19 +1766,19 @@
         <v>11</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1751,13 +1788,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,46 +1805,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1818,40 +1864,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1859,8 +1905,17 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1871,40 +1926,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1912,8 +1967,17 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1924,40 +1988,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -1965,8 +2029,17 @@
       <c r="Q4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1977,46 +2050,55 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2073,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2091,10 +2173,89 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="127">
   <si>
     <t>net_idx</t>
   </si>
@@ -246,6 +246,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -333,19 +342,58 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_reaction_0']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_1']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_2']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_3']</t>
+  </si>
+  <si>
+    <t>[[150.0, 120.0]]</t>
+  </si>
+  <si>
+    <t>[[598.0, 70.0], [591.0, 201.0]]</t>
+  </si>
+  <si>
+    <t>[[145.0, 380.0]]</t>
+  </si>
+  <si>
+    <t>[[565.0, 328.0], [561.0, 461.0]]</t>
+  </si>
+  <si>
+    <t>[[341.0, 117.0]]</t>
+  </si>
+  <si>
+    <t>[[817.0, 132.0]]</t>
+  </si>
+  <si>
+    <t>[[351.0, 325.0], [347.0, 453.0]]</t>
+  </si>
+  <si>
+    <t>[[835.0, 346.0], [834.0, 464.0]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
   </si>
   <si>
-    <t>_line_ending_default_</t>
+    <t>line_ending_reaction_0</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_1</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_2</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_3</t>
   </si>
   <si>
     <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
   </si>
   <si>
     <t>['polygon']</t>
@@ -1788,13 +1836,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,8 +1900,17 @@
       <c r="T1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1864,37 +1921,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
         <v>59</v>
@@ -1906,16 +1963,25 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1926,37 +1992,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
@@ -1968,16 +2034,25 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="T3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1988,37 +2063,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
         <v>59</v>
@@ -2030,16 +2105,25 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="T4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2050,37 +2134,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2092,12 +2176,21 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2186,7 +2279,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2240,22 +2333,91 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="128">
   <si>
     <t>net_idx</t>
   </si>
@@ -255,6 +255,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -354,28 +357,28 @@
     <t>['line_ending_reaction_3']</t>
   </si>
   <si>
-    <t>[[150.0, 120.0]]</t>
-  </si>
-  <si>
-    <t>[[598.0, 70.0], [591.0, 201.0]]</t>
-  </si>
-  <si>
-    <t>[[145.0, 380.0]]</t>
-  </si>
-  <si>
-    <t>[[565.0, 328.0], [561.0, 461.0]]</t>
-  </si>
-  <si>
-    <t>[[341.0, 117.0]]</t>
-  </si>
-  <si>
-    <t>[[817.0, 132.0]]</t>
-  </si>
-  <si>
-    <t>[[351.0, 325.0], [347.0, 453.0]]</t>
-  </si>
-  <si>
-    <t>[[835.0, 346.0], [834.0, 464.0]]</t>
+    <t>[[178.0, 119.56]]</t>
+  </si>
+  <si>
+    <t>[[617.77, 88.0], [611.97, 183.0]]</t>
+  </si>
+  <si>
+    <t>[[173.0, 382.32]]</t>
+  </si>
+  <si>
+    <t>[[593.0, 343.02], [589.0, 448.55]]</t>
+  </si>
+  <si>
+    <t>[[313.0, 117.44]]</t>
+  </si>
+  <si>
+    <t>[[789.0, 132.44]]</t>
+  </si>
+  <si>
+    <t>[[331.25, 343.0], [331.01, 435.0]]</t>
+  </si>
+  <si>
+    <t>[[807.0, 357.05], [806.0, 450.7]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
@@ -399,7 +402,7 @@
     <t>['polygon']</t>
   </si>
   <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+    <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
   </si>
 </sst>
 </file>
@@ -1836,13 +1839,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,8 +1912,20 @@
       <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1921,37 +1936,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
         <v>59</v>
@@ -1963,25 +1978,31 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T2" t="s">
         <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1992,37 +2013,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
@@ -2034,25 +2055,31 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T3" t="s">
         <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2063,37 +2090,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
         <v>59</v>
@@ -2105,25 +2132,31 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T4" t="s">
         <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2134,37 +2167,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2176,21 +2209,27 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T5" t="s">
         <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2310,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2333,22 +2372,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2356,22 +2395,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2379,22 +2418,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2402,22 +2441,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="133">
   <si>
     <t>net_idx</t>
   </si>
@@ -198,114 +199,123 @@
     <t>rectangle</t>
   </si>
   <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>rate_law</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>line_thickness</t>
+  </si>
+  <si>
+    <t>center_pos</t>
+  </si>
+  <si>
+    <t>handles</t>
+  </si>
+  <si>
+    <t>bezier</t>
+  </si>
+  <si>
+    <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
+  </si>
+  <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
+    <t>reaction_0</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[8, 9]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[6, 7]</t>
+  </si>
+  <si>
+    <t>[10, 11]</t>
+  </si>
+  <si>
+    <t>E0 * (k0 * x_0 - k0r * x_1)</t>
+  </si>
+  <si>
+    <t>E1 * (k1 * x_5 * x_6 - k1r * x_7)</t>
+  </si>
+  <si>
+    <t>E2 * (k2 * x_2 - k2r * x_3 * x_4)</t>
+  </si>
+  <si>
+    <t>E3 * (k3 * x_8 * x_9 - k3r * x_10 * x_11)</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>rate_law</t>
-  </si>
-  <si>
-    <t>modifiers</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>line_thickness</t>
-  </si>
-  <si>
-    <t>center_pos</t>
-  </si>
-  <si>
-    <t>handles</t>
-  </si>
-  <si>
-    <t>bezier</t>
-  </si>
-  <si>
-    <t>arrow_head_size</t>
-  </si>
-  <si>
-    <t>rxn_dash</t>
-  </si>
-  <si>
-    <t>rxn_reversible</t>
-  </si>
-  <si>
-    <t>sources_lineending</t>
-  </si>
-  <si>
-    <t>targets_lineending</t>
-  </si>
-  <si>
-    <t>modifiers_lineending</t>
-  </si>
-  <si>
-    <t>src_lineend_position</t>
-  </si>
-  <si>
-    <t>tgt_lineend_position</t>
-  </si>
-  <si>
-    <t>mod_lineend_position</t>
-  </si>
-  <si>
-    <t>center_size</t>
-  </si>
-  <si>
-    <t>reaction_0</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[2, 3]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[8, 9]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[6, 7]</t>
-  </si>
-  <si>
-    <t>[10, 11]</t>
-  </si>
-  <si>
-    <t>E0 * (k0 * x_0 - k0r * x_1)</t>
-  </si>
-  <si>
-    <t>E1 * (k1 * x_5 * x_6 - k1r * x_7)</t>
-  </si>
-  <si>
-    <t>E2 * (k2 * x_2 - k2r * x_3 * x_4)</t>
-  </si>
-  <si>
-    <t>E3 * (k3 * x_8 * x_9 - k3r * x_10 * x_11)</t>
-  </si>
-  <si>
     <t>[129, 123, 255, 255]</t>
   </si>
   <si>
@@ -403,6 +413,12 @@
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -1839,13 +1855,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,8 +1940,14 @@
       <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1936,40 +1958,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1978,31 +2000,37 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
         <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>97</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2013,40 +2041,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -2055,31 +2083,37 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="U3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="X3" t="s">
         <v>16</v>
       </c>
       <c r="AA3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>97</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2090,40 +2124,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -2132,31 +2166,37 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="X4" t="s">
         <v>16</v>
       </c>
       <c r="AA4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2167,40 +2207,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -2209,28 +2249,34 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="U5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="X5" t="s">
         <v>16</v>
       </c>
       <c r="AA5" t="s">
-        <v>59</v>
+        <v>97</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2318,13 +2364,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2343,13 +2389,16 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2358,105 +2407,162 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>130</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="133">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -103,15 +115,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -311,9 +314,6 @@
   </si>
   <si>
     <t>E3 * (k3 * x_8 * x_9 - k3r * x_10 * x_11)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[129, 123, 255, 255]</t>
@@ -776,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,8 +828,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -840,31 +849,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -873,7 +882,10 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -894,22 +906,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -918,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -945,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -977,40 +989,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -1019,19 +1031,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1051,40 +1063,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1093,19 +1105,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1125,40 +1137,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1167,19 +1179,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1199,40 +1211,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1241,19 +1253,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1273,40 +1285,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1315,19 +1327,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1347,40 +1359,40 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1389,19 +1401,19 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1421,40 +1433,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1463,19 +1475,19 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1495,40 +1507,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1537,19 +1549,19 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1569,40 +1581,40 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1611,19 +1623,19 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1643,40 +1655,40 @@
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1685,19 +1697,19 @@
         <v>11</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1717,40 +1729,40 @@
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1759,19 +1771,19 @@
         <v>11</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1791,40 +1803,40 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>55</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1833,19 +1845,19 @@
         <v>11</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1872,79 +1884,79 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1958,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>98</v>
@@ -1985,19 +1997,19 @@
         <v>105</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>110</v>
@@ -2006,7 +2018,7 @@
         <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
         <v>115</v>
@@ -2015,19 +2027,19 @@
         <v>119</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -2041,19 +2053,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>99</v>
@@ -2068,19 +2080,19 @@
         <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
         <v>110</v>
@@ -2089,7 +2101,7 @@
         <v>112</v>
       </c>
       <c r="T3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
         <v>116</v>
@@ -2098,19 +2110,19 @@
         <v>120</v>
       </c>
       <c r="W3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -2124,19 +2136,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>100</v>
@@ -2151,19 +2163,19 @@
         <v>107</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
         <v>110</v>
@@ -2172,7 +2184,7 @@
         <v>113</v>
       </c>
       <c r="T4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
         <v>117</v>
@@ -2181,19 +2193,19 @@
         <v>121</v>
       </c>
       <c r="W4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -2207,19 +2219,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>98</v>
@@ -2234,19 +2246,19 @@
         <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
         <v>110</v>
@@ -2255,7 +2267,7 @@
         <v>114</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="U5" t="s">
         <v>118</v>
@@ -2264,19 +2276,19 @@
         <v>122</v>
       </c>
       <c r="W5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2345,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2351,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2384,10 +2396,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2401,22 +2413,22 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2442,7 +2454,7 @@
         <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2468,7 +2480,7 @@
         <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2494,7 +2506,7 @@
         <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2520,7 +2532,7 @@
         <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/mass_action_rxn.xlsx
+++ b/tests/initiate_excel_files/mass_action_rxn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="134">
   <si>
     <t>net_idx</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>x_0</t>
@@ -895,13 +898,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,8 +974,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -989,34 +995,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1031,22 +1037,25 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1063,34 +1072,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1105,22 +1114,25 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1137,34 +1149,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1179,22 +1191,25 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1211,34 +1226,34 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1253,22 +1268,25 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1285,34 +1303,34 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1327,22 +1345,25 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1359,34 +1380,34 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1401,22 +1422,25 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1433,34 +1457,34 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -1475,22 +1499,25 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1507,34 +1534,34 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -1549,22 +1576,25 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1581,34 +1611,34 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1623,22 +1653,25 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1655,34 +1688,34 @@
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -1697,22 +1730,25 @@
         <v>11</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1729,34 +1765,34 @@
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -1771,22 +1807,25 @@
         <v>11</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1803,34 +1842,34 @@
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>56</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>55</v>
-      </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1845,19 +1884,22 @@
         <v>11</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X13" t="s">
         <v>24</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1884,64 +1926,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1953,10 +1995,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1970,37 +2012,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -2012,19 +2054,19 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
@@ -2053,37 +2095,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -2095,19 +2137,19 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T3" t="s">
         <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W3" t="s">
         <v>25</v>
@@ -2136,37 +2178,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -2178,19 +2220,19 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T4" t="s">
         <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
@@ -2219,37 +2261,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -2261,19 +2303,19 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T5" t="s">
         <v>25</v>
       </c>
       <c r="U5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W5" t="s">
         <v>25</v>
@@ -2410,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2436,22 +2478,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -2462,22 +2504,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -2488,22 +2530,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -2514,22 +2556,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2550,10 +2592,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
